--- a/sheets/outdoors.xlsx
+++ b/sheets/outdoors.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="baskets" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="pots" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="water-fountains" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="floor-decking" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="outdoor-funiture" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="249">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -188,6 +189,672 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.com/in/en/p/runnen-floor-decking-outdoor-brown-stained-30234229/#content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHOS CORNER SOFA SET – CHARCOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ethos Corner Sofa evokes a sense of timeless elegance, with a classical design, reminiscent of interior sofas. The Ethos Sofa truly unifies your inside and outside space by blurring the lines between your house and garden, whilst still retaining the look of a sofa that belongs outside. It's deep seating with extra wide arms will let you relax and enjoy the outdoors for hours. Complete with footstool, put your feet up and forget about life and stresses. Unlike most cloth, Maze Outdoor fabrics are made from fibres that are dyed before they are woven, this gives a deeper colour, with every yarn coloured to the core. The resultant fabric can be left outdoors for many years without suffering the fading and abrasions that plague other fabrics. All foam and cushions used in Maze Outdoor Fabric furniture is custom designed with a wide-cell structure to maximise airflow, allowing the furniture to dry quickly, without trapping pockets of water. The antimicrobial treatment that every piece undergoes prevents the build-up of bacteria that can cause nasty smells. Maze Outdoor Fabric products can be left outside year round, and cleaned using mild bleach and warm water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/0/0/00%20MAIN%20COVER%20PHOTO%20(1920x849)%20-%20Ethos%20Corner%20Sofa.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/catalog/product/cache/232536036d99276e8a41871d8b3ae6c0/e/t/Ethos%20Corner%20Sofa%20Set%20Photo%2003%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/catalog/product/view/id/229/s/maze-outdoor-fabric-ethos-corner-sofa-lead-chine/category/36/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHOS C O R N E R SOFA SET – LEAD CHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/e/t/Ethos%20Corner%20Sofa%20Set%20Photo%2007%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/e/t/Ethos%20Corner%20Sofa%20Set%20Photo%2004%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/catalog/product/view/id/227/s/maze-outdoor-fabric-ethos-corner-sofa-charcoal/category/36/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHOS 4 SEAT SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Ethos set features a comfortable 2-seater sofa, two additional armchairs, and is apart of the La Vita fabric range. Its deep-filled high-back cushions give support and comfort for lounging with friends. They are removable for an easy clean, or for storage over the winter. This garden furniture set has the design of an interior sofa but is stitched with high-quality all-weather fabric that can be left outdoors all year. It features wide-spread armrests for extra support, and for a spot to hold any accessories. Its low square coffee table has an aluminium slatted pattern top that is easy to clean adds to the contemporary look of the set. This set also features solid powder-coated aluminium framed legs that keep it off the ground.
+    1 x Fabric 2 seater sofa
+    2 x Fabric Armchairs
+    1 x Square coffee table
+    Tailored weather cover included
+    Removable back cushions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0843/1019/products/DSC_2578_800x.jpg?v=1571439276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0843/1019/products/Ethos-2-Seat-Sofa-Set-_flanelle-grey_68_800x.jpg?v=1571439276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://woodstockhome.co.uk/products/ethos-2-seater-sofa-set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBITION CORNER SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ambition Corner sofa set is one of the Flagship products in the Maze range. it's luxury back cushions, striking flashes of colour and its curved shape make it the ultimate in relaxing chic. Unlike most cloth, Maze Outdoor fabrics are made from fibres that are dyed before they are woven, this gives a deeper colour, with every yarn coloured to the core. The resultant fabric can be left outdoors for many years without suffering the fading and abrasions that plague other fabrics. All foam and cushions used in Maze Outdoor Fabric furniture is custom designed with a wide-cell structure to maximise airflow, allowing the furniture to dry quickly, without trapping pockets of water. The antimicrobial treatment that every piece undergoes prevents the build-up of bacteria that can cause nasty smells. Maze Outdoor Fabric products can be left outside year round, and cleaned using mild bleach and warm water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/a/m/Ambition%20Corner%20Sofa%20Photo%2003%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/catalog/product/view/id/197/s/maze-outdoor-fabric-ambition-corner-sofa-charcoal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBITION SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn11.bigcommerce.com/s-gufx2avvyb/images/stencil/1280x1280/products/6131/17744/Ambition_3_Seat_Flanelle_02__18352.1618387002.jpg?c=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn11.bigcommerce.com/s-gufx2avvyb/images/stencil/1280x1280/products/6131/17747/Ambition_3_Seat_Flanelle_06__08615.1618387005.jpg?c=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internetgardener.co.uk/ambition-3-seater-outdoor-fabric-sofa-set#images-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVE CORNER SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cove corner sofa creates a perfect destination of any garden. With side tables at each end of the long curved sofa and accompanying coffee table, it quickly becomes the most sought after place to be in any any outdoor space. 
+    - 2 Seater Curve Corner Left Hand Sofa: 162cm(W) x 82.5cm(D) x 75.5cm(H) 
+    - 2 Seater Curve Corner Right Hand Sofa: 162cm(W) x 82.5cm(D) x 75.5cm(H)  
+    - Curve Corner Section  161cm(W) x 93.5cm(D) x 75.5cm(H) 
+    - Curve Corner Round Coffee Table: 100cm x 100cm(W) x 37cm (H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.squarespace-cdn.com/content/v1/5c270ecee17ba3d4ccaae672/1561540139556-E65UBAUM96TV0YB2MWA3/Cove-Corner-Set-White-Out-1.jpg?format=500w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.squarespace-cdn.com/content/v1/5c270ecee17ba3d4ccaae672/1576469884552-RDNBO87ADYWB38SWNCH1/DSC_0872_Retouched.jpg?format=750w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lavitaoutdoorliving.com/cove-corner-sofa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNUG DAYBED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Snug is a true feat of masterful ingenuity and contemporary design. You’d be easily forgiven for questioning whether this was a sofa or a daybed. 
+The Snug merges together to create a single cozy daybed, or just as easily comes part to form 4 separate chairs with a central footstool that can double up as a rising table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.squarespace-cdn.com/content/v1/5c270ecee17ba3d4ccaae672/1561620658548-SVM264M0ENNWUWZ39R8S/Snug_Whiteout_9.jpg?format=750w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.squarespace-cdn.com/content/v1/5c270ecee17ba3d4ccaae672/1561620650300-DIBAJIKT39HJSZ6OHQKX/Snug_Whiteout_1.jpg?format=750w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lavitaoutdoorliving.com/snug?rq=SNUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULSE CORNER SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The original set which launched our popular Pulse Range, the Pulse Corner Dining carries all the traits of the more compact Pulse Sofa Set, with sumptuous back and base cushions, as well as simple yet strong legs that help create the refined, fuss-free look and feel. The set comes with the rising table feature, transfer your L shaped corner sofa from a casual dining experience into a relaxed setting. Made from high performance outdoor fabric and materials, the corner sofa is designed to be outside all year round. Prepare your garden in time for Spring with a simple jet wash and leave your set to dry in the warming sun ready for months of use during the warmer season.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/media/catalog/product/cache/3a8425215e8e283fcd72f295c0c84f96/p/u/pulse%20(17).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/media/catalog/product/cache/3a8425215e8e283fcd72f295c0c84f96/p/u/pulse%20(23).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/catalog/product/view/id/50/s/maze-lounge-pulse-corner-dining-set-with-rising-table-flanelle-1-1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 SEAT DINNING SET (BLISS CHAIR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bliss 8 Seat dining Set with Firepit table is as opulent as it is simple, with a generously filled base and back cushion - finished with a quilted back which creates real depth of style and personality. With easily stackable chairs, this set is a true space saver and easy to stack away and store if needed.
+Unlike most cloth, Maze Outdoor fabrics are made from fibres that are dyed before they are woven, this gives a deeper colour, with every yarn coloured to the core. The resultant fabric can be left outdoors for many years without suffering the fading and abrasions that plague other fabrics. All foam and cushions used in Maze Outdoor Fabric furniture is custom designed with a wide-cell structure to maximise airflow, allowing the furniture to dry quickly, without trapping pockets of water. The antimicrobial treatment that every piece undergoes prevents the build-up of bacteria that can cause nasty smells. Maze Outdoor Fabric products can be left outside year round, and cleaned using mild bleach and warm water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/catalog/product/cache/232536036d99276e8a41871d8b3ae6c0/b/l/Bliss%20%20Seat%20Dining%20Set%20with%20Firepit%20Photo%2007%20-1920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/catalog/product/cache/232536036d99276e8a41871d8b3ae6c0/b/l/Bliss%20%20Seat%20Dining%20Set%20with%20Firepit%20Photo%2002%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/catalog/product/view/id/315/s/maze-outdoor-fabric-bliss-8-seat-dining-set-with-firepit-charcoal/category/7/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 SEAT SET (ZEST CHAIR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlike most cloth, Maze Outdoor fabrics are made from fibres that are dyed before they are woven, this gives a deeper colour, with every yarn coloured to the core. The resultant fabric can be left outdoors for many years without suffering the fading and abrasions that plague other fabrics. All foam and cushions used in Maze Outdoor Fabric furniture is custom designed with a wide-cell structure to maximise airflow, allowing the furniture to dry quickly, without trapping pockets of water. The antimicrobial treatment that every piece undergoes prevents the build-up of bacteria that can cause nasty smells. Maze Outdoor Fabric products can be left outside year round, and cleaned using mild bleach and warm water.
+Zest Fabric Chair - Width 58cm, Depth 66cm, Height 86cm
+Dining Table - Length 90cm, Width 90cm, Height 75cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/z/e/Zest%204%20Seat%20Dining%20Set%20Photo%2001%20-%201920x849%20-%20desktop_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/catalog/product/cache/232536036d99276e8a41871d8b3ae6c0/z/e/Zest%204%20Seat%20Dining%20Set%20Photo%2004%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/catalog/product/view/id/252/s/maze-outdoor-fabric-zest-4-seat-dining-set-lead-chine/category/7/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 SEAT DINING SET (BLISS CHAIR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you're looking for a garden furniture set that has both opulent styles as well as engineered practicality, you may want to consider the Bliss 6 Seat Rectangular Dining Set from Maze Rattan. 
+Constructed from sturdy aluminium frames, the stacking chairs are upholstered in material that is designed to stand the test of the weather. Due to the solution-dyed acrylic fibres and an open-cell structure, the material remains fade resistant as well as quick-drying, meaning you can use the Bliss Garden Set as soon as an hour after rainfall. 
+Available to be upholstered in either Flanelle, Charcoal, Lead Chine or Taupe, the quilted effect also gives this piece a luxurious touch. Seating up to 6 people, this set is perfect for small garden get-togethers.
+Set Includes:
+x6 - Bliss Fabric Stacking Chairs 
+x1 - Spray Stone Dining Table
+Dimensions: 
+Bliss Fabric Stacking Chairs - W56cm x D62cm x H84cm 
+Spray Stone Dining Table - W160cm x L90cm x H75cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mattressman.co.uk/images/ProductImages/800px/bliss-6-seat-rectangular-dining-set-f99e8115.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mattressman.co.uk/cdn-cgi/image/format=auto,width=800/images/ProductImages/800px/bliss-6-seat-rectangular-dining-set-d1d8fb5c.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mattressman.co.uk/product/maze-rattan-bliss-6-seat-rectangular-dining-set-dining-set-p185818?vid=425325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEST 8 SEAT DINING SET WITH FIRE PIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Zest 8 seat rectangular firepit dining set is a delightful synthesis of versatility, modernity and expressive style. The armchair is designed for maximum comfort, with a playful style to craft the look of your outdoor dining. In addition, this table has been integrated with a gas fire pit system which will allow you to enjoy your garden furniture to the late hours in the evening. All of our fire pit systems are CE registered and will accommodate a 5kg green patio gas bottle, which can be stored underneath the table. We anticipate each gas bottle will last for approximately 6 -7 hours.
+Zest Dining Chair - W58cm x D66cm x H86cm
+Fire Pit Dining Table - L215cm x W90cm x H75cm
+Firepit System - L101cm x W25cm
+Griddle Pans - L32cm x W16cm
+Shelf - H16cm x L63cm x W18cm
+Seat Height - 50cm
+Seat Depth - 46cm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/media/extraimage/d/s/DSC_4933.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/media/catalog/product/cache/3a8425215e8e283fcd72f295c0c84f96/d/j/DJI_0455.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/catalog/product/view/id/695/s/maze-lounge-zest-8-seat-rectangular-dining-set-with-firepit-table-charcoal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEST BIS TRO SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Zest bistro set is a delightful synthesis of versatility, modernity, and expressive style. The small bistro set is designed for maximum comfort, with a playful style to craft the look of your balcony or courtyard garden experience.
+Specification:
+– La Vita High Performance Fabric
+– Fabric made of Solution Dyed Acrylic
+– Cushion Filling – Quick Dry Foam
+– Frame – Powder Coated Aluminium
+– Table Glass – Spray Stone Tempered Glass
+– Leave outside all year round
+2x Zest Dining Chairs
+1x Spray Stone Coffee Table – Round
+Zest Dining Chair – W58cm x D66cm x H86cm
+Spray Stone Dining Table – H75cm x Dia60cm
+Seat Height – 50cm
+Seat Depth – 46cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://outdoorleisureuk.com/wp-content/uploads/2022/02/00_main_cover_photo_1200x1200_zest_2_seat_bistro_set.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://outdoorleisureuk.com/wp-content/uploads/2022/02/Zest-Bistro-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://outdoorleisureuk.com/product/zest-2-seat-bistro-set-charcoal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGAL 8 SEAT BAR SET WITH FIRE PIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/wp-content/uploads/2021/10/AB55F67B-6754-41FB-A346-637768490142-scaled.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/wp-content/uploads/2021/10/955E0F9A-C4B8-4659-AAE7-EA6E73210433-scaled.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/product/maze-outdoor-fabric-regal-8-seat-rectangular-fire-pit-bar-set/#iLightbox[product-gallery]/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGAL 4 SEAT BAR SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/r/e/Regal%204%20Seat%20Bar%20Set%20Photo%2001%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/r/e/Regal%204%20Seat%20Bar%20set%20A%20-%20Charcoal-1920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/bar-sets/sunbrella-regal-4-seat-bar-set-charcoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGAL 6 SEAT BAR SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Regal-6-Seat-Rect-bar-set-DSC_5495--TAUPE-SQ_1800x1800.jpg?v=1641534134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/DSC_5445-KM-EDIT_2_600x.jpg?v=1646652257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.talor.co.uk/products/regal-6-seat-rectangular-bar-set-outdoor-fabric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARK DAY BED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Ark-Daybed---lead-chine_54_600x.jpg?v=1647945540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Ark-Daybed---lead-chine_39_600x.jpg?v=1647945540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.talor.co.uk/products/ark-outdoor-fabric-daybed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLURE SUN LOUNGER – CHARCOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Allure Sun lounger is largely characterised by its streamline design and uncomplicated appearance. This lounger is as comfortable as it is fuss-free and has been precisely designed to occupy any outdoor space.
+X1 Allure Fabric Sun lounger 
+X1 Winter Cover
+Sunlounger - H40cm x L208cm x D75cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Allure-Sunlounger-_DSC_2867_2_600x.jpg?v=1641766368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/AllureSunlounger_6_charcoalwhiteoutSQ_600x.jpg?v=1650017535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.talor.co.uk/collections/sunloungers/products/allure-outdoor-fabric-sunlounger-charcoal?variant=31664380936307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLURE SUN LOUNGER – LEAD CHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/DSC_4544-KM-EDIT-SQ_600x.jpg?v=1650017535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Allure_Sunlounger_6_white_out_cutout_600x.jpg?v=1650017535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITY SUN LOUNGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Unity Double Fabric Lounger from TALOR offers superior comfort and style to your garden. Manufactured from Maze Lounge this lounger provides resistance from all adverse weather conditions, making this lounger entirely maintenance free.
+1x - Unity Double Sunlounger 
+1x – Winter Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Unity-Sunlounger-_DSC_3388-_2_600x.jpg?v=1641505588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Unity-Sunlounger-_DSC_3385-_2_600x.jpg?v=1641505572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.talor.co.uk/products/unity-outdoor-fabric-sun-lounger-flanelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITY SUN LOUNGER – CHARCOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/DSC_2498-KM-EIDT_2_600x.jpg?v=1641505685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/DSC_2702-_2_600x.jpg?v=1641505465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD BALCONY SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Oxford 3 Piece Lounge Set is a simple yet very popular choice. The set includes two rounded chairs with sloping arms complete with back cushions and shaped coffee table topped with toughened glass. Ideal for smaller gardens or teamed with other matching products from the Oxford range.
+2x - Heritage Dining Chairs 
+1x - Rattan Coffee Table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Oxford-3pc-Lounge-Set-_DSC_2168-_2_1800x1800.jpg?v=1641558255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0079/8316/9591/products/Oxford-3pc-Lounge-Set-_DSC_2173-_2_1800x1800.jpg?v=1641551662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.talor.co.uk/collections/oxford-rattan-collection/products/pre-order-oxford-3pc-lounge-set?variant=38963932233913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD BISTRO SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relax in comfort and style with the Oxford 3 piece bistro set. This elegant Oxford set is made with total relaxation in mind, with the base and back cushions having extra deep filling for added comfort . The table has a woven edge top complete with toughened safety glass, whilst the seats come with extra thick piped cushions that are removable for washing.
+Table - Diameter 60cm, Height 75cm
+Chair - Width 60cm, Depth 72cm, Height 82cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/o/x/Oxford%203%20Piece%20Bistro%20Set%20Photo%2001%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/o/x/Oxford%203%20Piece%20Bistro%20Set%20Photo%2002%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/clearance/maze-rattan-oxford-3-piece-bistro-set-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD WAEVE 8 SEAT DINNING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table - Length 200cm, Width 100cm, Height 74cm
+Armchair - Width 63cm, Depth 60cm, Height 90cm
+The classic yet elegant look of the Oxford Dining Chair Set makes it suitable for any outdoor dining occasion, whilst in ultimate comfort. The seats have wide arms, extra high back and generous base and back cushions. Entertaining outdoors has never been more luxurious with the Oxford Dining chair set, whilst also making a stunning addition to your garden. The table has a fully weaved edge complete with matching coloured toughened safety glass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/o/x/OXFORD%208%20SEAT%20RECTANGLE%20DINING%20SET%20-%20%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/ranges/oxford/maze-rattan-oxford-8-seat-rectangle-dining-set-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD WEAVE CORDER DINING SOFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/o/x/OXFORD%20HIGH%20BACK%20CORNER%20SOFA%20DINING%20SET%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/o/x/oxford_dining_table%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/sofa-sets/maze-rattan-oxford-high-back-corner-sofa-dining-set-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD LIFESTYLE SUITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/media/extraimage/o/x/Oxford-Lifestyle-Suite-_DSC_1660.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/media/extraimage/o/x/Oxford-Lifestyle-Suite-_DSC_1693.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazeliving.co.uk/casual-dining-sets/maze-rattan-oxford-lifestyle-suite-with-rising-table-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD WEAVE 5 SEAT SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/o/x/Oxford%20High%20Back%205%20Seat%20Sofa%20Set%2001%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/o/x/Oxford%20High%20Back%205%20Seat%20Sofa%20Set%2004%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/ranges/oxford/maze-rattan-oxford-high-back-5-seat-sofa-set-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD 4 SEAT SOFA SET WITH FIREPIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Oxford 2 Seat Sofa Set with Gas Fire Pit Coffee Table was been specifically designed for long evening nights, keeping the cold weather at bay and providing a touch of warmth and comfort to any outdoor space.
+SET INCLUDES
+1x 2 Seat Sofa
+2x Armchairs
+1x Fire Pit Coffee Table – Oval
+1x Fire Pit System and Metal Lid
+1x Glass Surround and Lava Rocks
+1x Hose and Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/wp-content/uploads/2021/09/Oxford-2-Seat-Sofa-Set-with-Fire-Pit-scaled.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/wp-content/uploads/2021/09/Oxford-2-Seat-Sofa-Set-with-Fire-Pit-2-scaled.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/product/maze-rattan-oxford-2-seat-sofa-set-with-fire-pit-coffee-table/#iLightbox[product-gallery]/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFORD CORNER SOFA SET WITH FIREPIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Oxford Large Corner Group with Fire Pit Coffee Table features thick arms and backs that slope gracefully to the floor, with an additional separate centre you may lengthen either the right or left side of the unit to accomodate your own space. The Fire Pit feature provides maximum warmth and light, allowing long evenings in your garden.
+SET INCLUDES
+1x Left Hand Sofa
+1x Right Hand Sofa
+1x Corner Piece
+1x Modular Centre Piece
+1x Fire Pit Coffee Table – Oval
+1x Fire Pit System and Metal Lid
+1x Glass Surround and Lava Rocks
+1x Hose and Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/wp-content/uploads/2021/09/Oxford-Large-Corner-Group-with-Fire-Pit-1-scaled.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/wp-content/uploads/2021/09/Oxford-Large-Corner-Group-with-Fire-Pit-2-scaled.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheshiresandstone.com/product/maze-rattan-oxford-large-corner-sofa-with-fire-pit-coffee-table/#iLightbox[product-gallery]/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIAMI 4 SEAT SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The modern sofa set is manufactured with total relaxation in mind, complete with extra thick 13cm base cushions and tapered back cushions for extra comfort. The set is weaved using market leading Viro brand of rattan which comes with a 1-year warranty against fading or corrosion for peace of mind. With its sleek lines and contemporary looks, the set will make a stunning addition to any area and is perfect for entertaining and relaxation. The table has a matching grey coloured toughened safety glass top. The set compromises of 2 x single armchairs, 1 x two seat sofa and a coffee table (with cushion). The rattan is weaved around a powder coated rust-resistant aluminium frame, resulting in a maintenance free set that can be left outdoors all year round in any weather conditions. The rattan weave is water and frost resistant, it is UV light resistant to ensure that the rattan does not fade in sunlight and has been tested to withstand temperatures from -25c to +55c temperatures.
+Miami 2 Seat Sofa - Height 69cm, Width 160cm, Depth 80cm
+Miami Single Armchair - Height 69cm, Width 95cm, Depth 80cm
+Rattan Coffe Table - Length 120cm, Width 60cm, Height eight 45cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/m/i/Miami%20Grey%20Weave%204%20Seat%20Sofa%20Set%2001%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/wysiwyg/Miami_Grey_Weave_4_Seat_Sofa_Set.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/ranges/miami/maze-rattan-miami-grey-weave-4-seat-sofa-set-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIAMI 5 SEAT SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The modern sofa set is manufactured with total relaxation in mind, complete with extra thick 13cm base cushions and tapered back cushions for extra comfort. The set is weaved using market leading Viro brand of rattan which comes with a 1-year warranty against fading or corrosion for peace of mind. With its sleek lines and contemporary looks, the set will make a stunning addition to any area and is perfect for entertaining and relaxation. The table has a matching grey coloured toughened safety glass top. The set compromises of 2 x single armchairs, 1 x three seat sofa and a coffee table (with cushion). The rattan is weaved around a powder coated rust-resistant aluminium frame, resulting in a maintenance free set that can be left outdoors all year round in any weather conditions. The rattan weave is water and frost resistant, it is UV light resistant to ensure that the rattan does not fade in sunlight and has been tested to withstand temperatures from -25c to +55c temperatures.
+Miami 3 Seat Sofa - Height 69cm, Width 226cm, Depth 80cm
+Miami Single Armchair - Height 69cm, Width 95cm, Depth 80cm
+Rattan Coffe Table - Length 120cm, Width 60cm, Height 45cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/m/i/Miami%20Grey%20Weave%205%20Seat%20Sofa%20Set%2001%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/wysiwyg/Miami_Grey_Weave_5_Seat_Sofa_Set.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/ranges/miami/maze-rattan-miami-grey-weave-5-seat-sofa-set-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIAMI WEAVE CORNER SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relax in comfort and style with the Viro modular corner sofa set. The modern sofa set is manufactured with total relaxation in mind, complete with extra thick 13cm base cushions and tapered back cushions for extra comfort. The set is weaved using market leading Viro brand of rattan which comes with a 1-year warranty against fading or corrosion for peace of mind. With its sleek lines and contemporary looks, the set will make a stunning addition to any area and is perfect for entertaining and relaxation. The table has a grey coloured toughened safety glass top. The set compromises of 3 x corner sections, 2 x centre sections and a coffee table (with cushion). The rattan is weaved around a powder coated rust-resistant aluminium frame, resulting in a maintenance free set that can be left outdoors all year round in any weather conditions. The rattan weave is water and frost resistant, it is UV light resistant to ensure that the rattan does not fade in sunlight and has been tested to withstand temperatures from -25c to +55c temperatures.
+Miami Corner Sofa Section - Height 69cm, Width 80cm, Depth 80cm
+Miami Centre Sofa Section - Height 69cm, Width 66cm, Depth 80cm
+Miami Single Armchair - Height 69cm, Width 95cm, Depth 80cm
+Rattan Coffe Table - Length 120cm, Width 60cm, Height 45cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/extraimage/m/i/Miami%20Grey%20Large%20Modular%20Corner%20Sofa%20Set%2001%20-%201920x849%20-%20desktop.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/wysiwyg/Miami_corner_sofa_set.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/maze-rattan-miami-grey-large-modular-corner-sofa-set-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIAMI WEAVE 6 SEAT DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIAMI BISTRO SET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This 2 seat bistro set set is perfect for your balcony or patio. This set is handwoven with UV treated Polyethylene wicker. The set is constructed with commercial grade powder-coated aluminium frames that will remain rust free. The set comes with a 1 year warranty against fading or corrosion for piece of mind. The table has fully woven legs and inset toughened safety glass with a frosted finish. The seats have wide arms, high back and generous base cushions. Entertaining outdoors has never been more luxurious.
+Table - Diameter 60cm, Height 77cm
+Chair - Width 54cm, Depth 57cm, Height 86cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/catalog/product/cache/b8e90cc78e9e58ddaa58e11cb83103ef/m/i/miami_grey_weave_2_seat_bistro_set_-_700x700_-_mobile.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/wysiwyg/miami_bistro_set.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/balcony-sets/maze-rattan-miami-2-seat-bistro-set-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIAMI SUN LOUNGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With its sleek lines and contemporary looks, this lounger will make a stunning addition to any area and is perfect for entertaining and relaxation. The table (sold separately) has a frosted toughened safety glass top. The Miami Lounger will turn any outdoor area into a luxurious retreat. This Lounger is handwoven using market leading Viro brand of rattan. The piece is constructed with commercial grade powder-coated aluminium frames that will remain rust free. Comes complete with extra thick base cushion with Sunproof fabric for extra comfort. The lounger comes with a 1-year warranty against fading or corrosion for peace of mind. The rattan weave is water and frost resistant, it is UV light resistant to ensure that the rattan does not fade in sunlight and has been tested to withstand temperatures from -25c to +55c temperatures.
+Lounger - Length 201cm, Width 74cm, Height 37cm
+Table - Length 45cm, Depth 45cm, Height 37cm (sold separately)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/catalog/product/cache/9ae7fdbf7a41d276f18c90306b0f5108/m/i/miami_grey_weave_sunlounger_1-_700x700_-_mobile.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/media/catalog/product/cache/b8e90cc78e9e58ddaa58e11cb83103ef/m/i/miami_grey_weave_sunlounger_2-_700x700_-_mobile.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mazerattanfurniture.ae/ranges/miami/maze-rattan-miami-grey-weave-sunlounger-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINCHESTER W E AVE 4 SEAT SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 SEAT SOFA SET WITH FIREPIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINCHESTER CORNER SOFA SET WITH FIRE PIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINCHESTER 5 SEAT SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINCHESTER WEAVE CORNER DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINCHESTER WEAVE 8 SEAT DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINCHESTER STACKABLE SUN LOUNGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINCHESTER SIDE TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REHAU HANGING POD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REHAU 4 SEAT DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REHAU WEAVE 8 SEAT DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REHAU WEAVE STACKABLE SUN LOUNGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REHAU 4 SEAT BAR SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REHAU STACKABLE SUN LOUNGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 SEAT SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 SEAT SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALUMINIUM MANHATTAN SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALUMINIUM MANHATTAN 8 SEAT DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANHATTAN DINING TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA ROPE 4 SEAT BAR SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA ROPE 6 SEAT BAR SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA ROPE WEAVE SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA ROPE WEAVE 12 SEAT DINING SET WITH FIRE PIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA ROPE 8 SEAT DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA ROPE 6 SEAT DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 SEAT BAR SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 SEAT BAR SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA JUMBO ROPE WEAVE SOFA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINA JUMBO ROPE WEAVE 8 SEAT DINING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M x 3M CANTILEVER ROTATING LED PARASOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN-POOL SUN LOUNGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE OUTDOOR BEAN BAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALUMINUM TRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAZI OUTDOOR BEAN BAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALUMINUM SIDE TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M x 3M PERGOLA – WITH 4 DROP SIDES &amp; LED LIGHTENING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M x 4M PERGOLA – WITH 4 DROP SIDES &amp; LED LIGHTENING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULAR OUT DOOR KITCHEN</t>
   </si>
 </sst>
 </file>
@@ -197,7 +864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,6 +892,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +941,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,6 +956,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -309,7 +985,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -390,7 +1066,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -562,7 +1238,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -581,11 +1257,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -611,66 +1287,853 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/outdoors.xlsx
+++ b/sheets/outdoors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="baskets" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,14 @@
     <sheet name="water-fountains" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="floor-decking" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="outdoor-funiture" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ice-buckets" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="bowls" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="solar-lights" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="decor" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="funiture" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="fragrances" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="lanterns" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="cabinets" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="326">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,6 +79,42 @@
     <t xml:space="preserve">https://www.ikea.com/us/en/p/branaes-basket-rattan-00138432/</t>
   </si>
   <si>
+    <t xml:space="preserve">Bread Basket 36x22 bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tested and approved for food contact.
+    Store in a cool dry place indoors.
+    Wipe clean with a damp cloth.
+    Wipe clean with a dry cloth.
+    Length: 36 cm, Width: 22 cm, Height: 6 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sgvarietyshop.com/wp-content/uploads/2020/10/140-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sgvarietyshop.com/wp-content/uploads/2020/10/140C.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sgvarietyshop.com/product/klyfta-bread-basket-36x22-bamboo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box with lid, natural, 30x30x23 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This slightly taller box in woven bamboo lets you glimpse what’s inside. The size and shape make this a decorative storage for things you want to keep close at hand but not always visible.
+In this decorative basket you can hide media and clothing accessories like chargers, cords, shawls and belts.
+Fits EKET cabinet, 35 cm deep, and other storage furniture with shelves which are at least 30 cm deep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/images/products/smarra-box-with-lid-natural__0713120_pe729269_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/images/products/smarra-box-with-lid-natural__0909127_pe667020_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/p/smarra-box-with-lid-natural-90348063/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plant pot, water hyacinth</t>
   </si>
   <si>
@@ -110,6 +154,13 @@
     <t xml:space="preserve">Plant pot, handmade bamboo</t>
   </si>
   <si>
+    <t xml:space="preserve">This handmade plant pot is made of leftover materials from our production of other bamboo products. A smart way to use nature's resources to create new unique products for your home.
+Skilled craftspeople have woven the plant pot by hand, so each pot is one of a kind.
+Don’t be fooled by the lightweight material’s soft exterior. This handmade plant pot is made of hardwearing and durable bamboo.
+The material brings a piece of nature into your home and spreads a calm, warm feeling.
+The plant pot has an inner saucer to collect excess water.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.ikea.com/us/en/images/products/klynnon-plant-pot-handmade-bamboo__1082047_pe858512_s5.jpg?f=l</t>
   </si>
   <si>
@@ -150,6 +201,55 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.goldenacre.ca/shop-all-departments/pots/shop-by-plant-size/4-inch-pots/5-in-black-marble-cover-pot/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant pot, black, 15 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This pot is made by skilled craftspeople in a small village in Vietnam. We’ve chosen to use bamboo since it’s a sustainable and lightweight material that makes the pot easy to move around.
+Handmade by skilled craftspeople, making each one unique.
+Lightweight, easy to lift and move.
+Decorate your home with plants combined with a plant pot to suit your style.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/qa/en/images/products/vattenmelon-plant-pot-black__1010773_pe828348_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/qa/en/images/products/vattenmelon-plant-pot-black__1010774_pe828349_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/qa/en/p/vattenmelon-plant-pot-black-50495367/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant pot, rattan, 12 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made of hand-woven rattan, a living material that makes each plant pot unique. It’s decorative with a natural look – and offers you a great way to invite nature into your home.
+Handmade by skilled craftspeople, making each one unique.
+Rattan is a natural material which ages beautifully and gains its own unique character over time.
+Lightweight, easy to lift and move.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sg/en/images/products/kaktusfikon-plant-pot-rattan__0919741_pe789478_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sg/en/images/products/kaktusfikon-plant-pot-rattan__0919743_pe789479_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sg/en/p/kaktusfikon-plant-pot-rattan-90454888/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant Pot, Home Office Decoration Amazing Bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/PI0AAOSwkQdhZpbR/s-l1600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/pwUAAOSwE6VhZpbQ/s-l1600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com/itm/194000892799</t>
   </si>
   <si>
     <t xml:space="preserve">Floor decking, outdoor, artificial grass, 0.81 m² (9 sq feet)</t>
@@ -855,6 +955,204 @@
   </si>
   <si>
     <t xml:space="preserve">MODULAR OUT DOOR KITCHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor Garden LED Ice Bucket Wine Cooler, Mains Powered Colour Changing Patio Lighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Illuminated LED ice bucket / wine cooler / champagne cooler / drinks holder.
+- Can hold multiple bottles. Great as champagne bucket, wine cooler, drinks cooler.
+- Can use outdoors. Perfect for your garden, veranda, patio, terrace or balcony.
+- Low voltage 5V mains powered lamp. Suitable to use outside.
+- Remote control provided. Choose from 16 static colours (including white) and 4 colour changing modes (including gradual colour change).
+- Multi-colour dimmable mood light.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0146/7593/5280/products/outdoor-small-new_1000x.jpg?v=1602545921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0146/7593/5280/products/1-orig_1000x.jpg?v=1602545921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pkgreenshop.co.uk/collections/table-lamps/products/outdoor-garden-led-ice-bucket-wine-cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serving bowl, bamboo, 28 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANDA serving bowls come in wood, metal and glass, and are available in assorted sizes – all are stackable to save space. A great option whether you are serving up a buffet or eating popcorn by the TV.
+Made of bamboo, which is an easy-care and hardwearing natural material.
+The serving bowls in the BLANDA series are available in several different materials and sizes – mix and match according to taste and need.
+Stack the smaller sizes inside the larger of the same range, to save space when not in use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/blanda-matt-serving-bowl-bamboo__0711996_pe728647_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/blanda-matt-serving-bowl-bamboo__0899360_pe608991_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/p/blanda-matt-serving-bowl-bamboo-60214343/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Tall Cage Lantern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his black lantern is solar powered. Super easy! That way you never have to replace the batteries. The solar lantern is easy to hang by the metal handle.
+Diameter: 17.8
+Height: 27.5 cm
+Also very nice to put down. This lantern gives super nice light! Make your garden or balcony even cozier with this beautiful hanging lamp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.svezakucu.rs/pics/items/portal/big/96791.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zizzoo.be/en/garden_garden-lighting_lighting/solar-garden-lamp-metal-black-15-x-25-cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta Selezione Marigold Premium Quality Seeds (Tagete Gigante a Fiore Pieno Multicolor) (Made in Italy) by Franchi Sementi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marigold Mix Seeds – High Selection Aromatic Seeds
+Seeds in double hermetic heat-sealed bag,
+High Selection Seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://khsouq.com/wp-content/uploads/2021/08/2045XB-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://khsouq.com/product/alta-selezione-marigold/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Potted Plant, in/Outdoor Geranium/Hanging red, 12 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	ESTABLISHER
+Colour:	Red
+Material:	Plastic
+Product Dimensions:	11D x 11W x 6H Centimeters
+Number of Items:	1
+Container shape:	Cylinder
+Included Components:	Leaves with plant pot
+Net Quantity:	1.0 count
+Suitable for both indoor and outdoor use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61SZemyG45L.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/610cEIKqSeL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/ESTABLISHER-Artificial-Outdoor-Geranium-Hanging/dp/B0B6GM96DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Boxwood Panels Topiary Hedge Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Indoor and Outdoor Applications: Perfect for adding privacy to an outdoor patio area, aesthetically enhance your area with a realistic look to beautify and transform your fence, walls, patio, garden, yard, walkways, backdrop, interior and exterior or your own creative design on party, Wedding, Christmas decorations. 
+Durability: Our artificial boxwood topiary hedge plants are Sun-proof, weather resistant, low-maintenance, eco-friendly and these greenery panels are made of lightweight yet super-strong high density polyethylene that's soft to the touch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/91wx9xJLzSL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61PVG39CCaL._AC_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Sunnyglade-Artificial-Protected-Suitable-Backyard/dp/B07ZKR2RPJ/ref=d_bmx_dp_103fyloo_sccl_2_2/142-7992727-3797158?pd_rd_w=MegF4&amp;content-id=amzn1.sym.cfd7335c-3d0d-4060-adff-508759439d76&amp;pf_rd_p=cfd7335c-3d0d-4060-adff-508759439d76&amp;pf_rd_r=NNPP1KVFW42CN3S6NKMV&amp;pd_rd_wg=Omfox&amp;pd_rd_r=dd7f4b22-c047-4ccc-aeab-7e4342b5ed49&amp;pd_rd_i=B07ZKR2RPJ&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Alta Selezione Portulaca Premium Quality Seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Hygienic packaging
+    Formulated with care
+    Packed with a host of goodness
+    Alta Selezione Portulaca Premium Quality Seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81Q9JLqq+XL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81+VGteVi1L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Alta-Selezione-Portulaca-Premium-Quality/dp/B08M6J5CSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folding chair, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just the thing for the breakfast nook or when you need extra chairs for dinner guests or parties. The hole in the back allows you to hang them on the wall to clear up space when they’re not being used.
+The chair folds to be easy to store when not in use.
+The chair comes pre-assembled, so you can start using it immediately.
+Keep one or two extra chairs folded away but handy for when guests come by.
+The hole in the seat allows you to hang it on the wall, so it takes less room when you're not using it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/images/products/terje-folding-chair-white__1082701_pe858782_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/images/products/terje-folding-chair-white__0872574_pe590656_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/om/en/p/terje-folding-chair-white-80222441/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retyion Retro Portable Iron Mosquito Coil Holder with Handle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape:	Round
+Material:	Iron
+Brand:	Retyion
+Color:	Black
+Cover Design: This mosquito coil box is designed with a cover and is safe to use.
+Size: 5.91x2.95 inches/15x7.5 cm. The use of high-quality metal materials, good thermal insulation effect, with a handle, easy to carry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51ZjwWhFbwL._AC_SL1001_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61EiWNWlPkL._AC_SL1001_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern for block candle, black, 22 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanterns always enhance a home’s decor – and when it gets dark outside, their glow creates a cosy atmosphere. The home feels warm, guests feel welcome and a romantic touch is added to every moment.
+The warm light from the candle shines decoratively through the pattern on the lantern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/images/products/urskilja-lantern-for-block-candle-black__1005775_pe825529_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/images/products/urskilja-lantern-for-block-candle-black__1005776_pe825531_s5.jpg?f=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/p/urskilja-lantern-for-block-candle-black-00509710/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Keter High Wardrobe Plus Bk/Glr, Resin, Grey, 68x39x166 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Keter
+Colour:	Gray
+Material:	Resin
+Recommended uses for product:	Utensili
+Product dimensions:	39D x 68W x 166H centimetres
+KETER ORGANIZE YOUR SPACE: the Stilo wardrobe is suitable for organizing all spaces inside the house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61RcPveCCvL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41Wrqx7vZGL._AC_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/KIS-Tall-Wardrobe-Grey-21-6/dp/B07DB2KXJV</t>
   </si>
 </sst>
 </file>
@@ -958,8 +1256,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -979,16 +1277,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3282</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="https://sgvarietyshop.com/product/klyfta-bread-basket-36x22-bamboo/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1010,38 +1438,213 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>170000</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
+    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1060,13 +1663,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -1095,119 +1698,194 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3270</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3272</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3274</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>300000</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3276</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>300000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3278</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>400000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3280</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1916,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1261,7 +1939,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1288,19 +1966,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,22 +1986,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,22 +2009,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1367,13 +2045,800 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,744 +2861,270 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>64</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>248</v>
+        <v>298</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/outdoors.xlsx
+++ b/sheets/outdoors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="baskets" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="fragrances" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="lanterns" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="cabinets" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="lamps" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="330">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1154,6 +1155,24 @@
   <si>
     <t xml:space="preserve">https://www.amazon.co.uk/KIS-Tall-Wardrobe-Grey-21-6/dp/B07DB2KXJV</t>
   </si>
+  <si>
+    <t xml:space="preserve">LE Rechargeable Camping Lantern, 1000 Lumen Camping Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light source type:	LED
+Brand:	Lighting EVER
+Colour:	Green, Black
+Power and Plug Description:	USB Rechargeable
+Material:	Plastic
+Brightness up to 1000 lumens, equal to 75W halogen bulbs, suitable for family or other activities where high brightness is needed, like BBQ or small party. Its outer case helps to emit smooth light with dazzle
+The light colour can change to cool white, warm white and neutral white together with a flashing mode. Long press the button to adjust the brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61--j-NT2EL._AC_SL1498_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Rechargeable-Camping-Lantern-Emergency-Resistant/dp/B08QZ8M5FS</t>
+  </si>
 </sst>
 </file>
 
@@ -1162,7 +1181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1190,11 +1209,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1239,7 +1253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1253,10 +1267,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1283,7 +1293,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1413,7 +1423,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1477,7 +1487,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1538,7 +1548,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1602,7 +1612,71 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1630,21 +1704,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>321</v>
+    <row r="2" customFormat="false" ht="73.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -1665,11 +1736,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -1875,7 +1946,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="0" t="s">
@@ -1916,7 +1987,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1939,7 +2010,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2049,7 +2120,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2836,7 +2907,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2900,7 +2971,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2964,7 +3035,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3025,7 +3096,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/outdoors.xlsx
+++ b/sheets/outdoors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="baskets" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="lanterns" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="cabinets" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="lamps" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="other" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="340">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -251,6 +252,25 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ebay.com/itm/194000892799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossy White Mixed/Composite Planter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The perfect planter for indoors or outdoor. The composition consists of a mixture of fiberglass, and stone powder. The attention to detail plus durability of materials being UV, and frost resistant will insure that the product will last for many years.
+Perfect for indoors or outdoor
+Smooth decorative surface
+Ideal for residential, commercial, and institutional use
+Maintenance free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mobileimages.lowes.com/productimages/70a38f9f-ba9d-4706-a8bb-1417f9b8c4f5/15387601.jpg?size=pdhism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mobileimages.lowes.com/productimages/dc431270-fdf7-4250-926d-9eceece62956/42401024.jpg?size=pdhism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lowes.com/pd/Vasesource-14-5-in-W-x-31-5-in-H-Shiny-White-Mixed-Composite/1002657400</t>
   </si>
   <si>
     <t xml:space="preserve">Floor decking, outdoor, artificial grass, 0.81 m² (9 sq feet)</t>
@@ -1048,7 +1068,7 @@
     <t xml:space="preserve">https://www.amazon.in/ESTABLISHER-Artificial-Outdoor-Geranium-Hanging/dp/B0B6GM96DT</t>
   </si>
   <si>
-    <t xml:space="preserve">Artificial Boxwood Panels Topiary Hedge Plant</t>
+    <t xml:space="preserve">Artificial Boxwood Panels Topiary Hedge Plant, Green</t>
   </si>
   <si>
     <t xml:space="preserve">For Indoor and Outdoor Applications: Perfect for adding privacy to an outdoor patio area, aesthetically enhance your area with a realistic look to beautify and transform your fence, walls, patio, garden, yard, walkways, backdrop, interior and exterior or your own creative design on party, Wedding, Christmas decorations. 
@@ -1135,8 +1155,7 @@
     <t xml:space="preserve">https://www.ikea.com/sa/en/p/urskilja-lantern-for-block-candle-black-00509710/</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Keter High Wardrobe Plus Bk/Glr, Resin, Grey, 68x39x166 cm</t>
+    <t xml:space="preserve">Keter High Wardrobe Plus Bk/Glr, Resin, Grey, 68x39x166 cm, Cabinet</t>
   </si>
   <si>
     <t xml:space="preserve">Brand:	Keter
@@ -1172,6 +1191,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.co.uk/Rechargeable-Camping-Lantern-Emergency-Resistant/dp/B08QZ8M5FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Indoor Rogue Areca Palm Tree Fake Tropical Plant Home Office Decor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- High-quality that offers years of beauty with no maintenance.
+- Vivid detailed palm leaves give a realistic appearance created to impress and bring enjoyment of indoor plants.
+- Includes black pot filled with solidified cement for firm standing.
+- Feel real to the touch bringing a sense of freshness, harmony, and energy. An elegant addition to your home decor.
+- Suitable for indoor and undercover outdoor areas.
+- Ideal for home, restaurants, offices, bars, cafe, gyms and more.
+Ships from and sold by HeyHey.com.au. HeyHeyOnline providing exclusive deals and Bargain Buys on a leading range of Kitchen &amp; household appliances from Juicers, Ice Shavers to Stock Pots. Free Shipping and 12 Month Warranty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/1460/7500/products/000_ecd3961d-7019-49e8-abfc-9e42cdadc4dc_1024x1024.jpg?v=1620362901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/1460/7500/products/003_5405e7c2-6c5d-493f-8b45-d625966505fe_1024x1024.jpg?v=1620362902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.heyhey.com.au/products/soga-2x-180cm-green-artificial-indoor-rogue-areca-palm-tree-fake-tropical-plant-home-office-decor</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1209,6 +1249,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1253,7 +1298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1268,6 +1313,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1289,11 +1338,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1359,6 +1408,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4874</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
@@ -1379,6 +1431,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4877</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
@@ -1417,13 +1472,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1448,23 +1503,93 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4347</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1483,11 +1608,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1512,18 +1637,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4359</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -1544,11 +1672,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1573,24 +1701,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4362</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1611,11 +1742,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1640,21 +1771,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4365</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1675,11 +1809,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1705,17 +1839,87 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="73.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4903</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4906</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -1734,13 +1938,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -1828,7 +2032,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4879</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +2072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>3278</v>
       </c>
@@ -1885,7 +2092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>3280</v>
       </c>
@@ -1905,7 +2112,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>4882</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1925,7 +2135,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>4888</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1945,7 +2158,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>4891</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1959,6 +2175,57 @@
         <v>66</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4894</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://www.ikea.com/us/en/images/products/ragkorn-plant-pot-indoor-outdoor-dark-gray-beige__0635623_pe697304_s5.jpg?f=l"/>
@@ -1981,14 +2248,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2006,11 +2297,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2036,66 +2327,69 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3597</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="2" t="n">
+        <v>3600</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
+      <c r="A4" s="2" t="n">
+        <v>3603</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2116,11 +2410,11 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2147,742 +2441,742 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2901,15 +3195,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2932,21 +3226,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4333</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4895</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4896</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>650000</v>
       </c>
     </row>
   </sheetData>
@@ -2967,11 +3295,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2996,21 +3324,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="34.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4899</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3031,11 +3362,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3060,18 +3391,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4901</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3090,13 +3424,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3121,83 +3455,115 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4335</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>4338</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>4341</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4344</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sheets/outdoors.xlsx
+++ b/sheets/outdoors.xlsx
@@ -1221,7 +1221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1249,11 +1249,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1298,7 +1293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1313,10 +1308,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1338,11 +1329,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1474,11 +1465,11 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1608,11 +1599,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1672,11 +1663,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1742,11 +1733,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1809,11 +1800,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1873,11 +1864,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1940,11 +1931,11 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -2250,11 +2241,11 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2297,11 +2288,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2410,11 +2401,11 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3197,11 +3188,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3256,7 +3247,7 @@
       <c r="B3" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D3" s="0" t="n">
@@ -3270,7 +3261,7 @@
       <c r="B4" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -3295,11 +3286,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3362,11 +3353,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3426,11 +3417,11 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/outdoors.xlsx
+++ b/sheets/outdoors.xlsx
@@ -1333,7 +1333,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1469,7 +1469,7 @@
       <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1603,7 +1603,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1667,7 +1667,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1737,7 +1737,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1804,7 +1804,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1868,7 +1868,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1935,7 +1935,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -2245,7 +2245,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2292,7 +2292,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2401,11 +2401,11 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3192,7 +3192,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3290,7 +3290,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3357,7 +3357,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3421,7 +3421,7 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
